--- a/交流管理/项目日报/聂正文—每日要做的事的.xlsx
+++ b/交流管理/项目日报/聂正文—每日要做的事的.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
   <si>
     <t>时间</t>
   </si>
@@ -68,6 +68,9 @@
     <t>jenkis+docker部署研究</t>
   </si>
   <si>
+    <t>低</t>
+  </si>
+  <si>
     <t>Jenkins部署</t>
   </si>
   <si>
@@ -75,6 +78,9 @@
   </si>
   <si>
     <t>UI+接口自动化框架搭建</t>
+  </si>
+  <si>
+    <t>中</t>
   </si>
   <si>
     <t>提供开发代码并部署成功</t>
@@ -94,12 +100,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,16 +114,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,27 +155,66 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,13 +229,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -191,7 +237,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,61 +252,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,121 +267,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,61 +435,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,30 +458,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -501,17 +476,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,8 +503,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,160 +558,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1061,7 +1060,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
@@ -1095,6 +1094,9 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
@@ -1104,10 +1106,13 @@
         <v>9.26</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1115,34 +1120,46 @@
         <v>9.27</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>9.28</v>
       </c>
       <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>9.29</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>9.3</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/聂正文—每日要做的事的.xlsx
+++ b/交流管理/项目日报/聂正文—每日要做的事的.xlsx
@@ -104,9 +104,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1063,7 +1063,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1128,7 +1128,9 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
@@ -1140,7 +1142,9 @@
       <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1">
+        <v>0.3</v>
+      </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>

--- a/交流管理/项目日报/聂正文—每日要做的事的.xlsx
+++ b/交流管理/项目日报/聂正文—每日要做的事的.xlsx
@@ -104,9 +104,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -118,7 +118,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,9 +154,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -157,15 +163,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,7 +177,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,9 +201,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -225,8 +223,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,23 +238,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,187 +270,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,6 +484,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,17 +535,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -538,17 +542,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,10 +567,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -579,16 +579,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -597,115 +597,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1143,7 +1143,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="1">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>

--- a/交流管理/项目日报/聂正文—每日要做的事的.xlsx
+++ b/交流管理/项目日报/聂正文—每日要做的事的.xlsx
@@ -104,9 +104,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -118,14 +118,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,8 +147,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,7 +157,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,7 +179,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,9 +203,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -223,37 +225,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -270,73 +270,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,109 +444,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,21 +484,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,6 +520,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -542,13 +538,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,10 +567,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -579,133 +579,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1063,7 +1063,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1143,7 +1143,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -1158,6 +1158,9 @@
       </c>
       <c r="C6" t="s">
         <v>8</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.15</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>

--- a/交流管理/项目日报/聂正文—每日要做的事的.xlsx
+++ b/交流管理/项目日报/聂正文—每日要做的事的.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
   <si>
     <t>时间</t>
   </si>
@@ -89,7 +89,13 @@
     <t>提供开发代码并部署成功</t>
   </si>
   <si>
+    <t>未提供</t>
+  </si>
+  <si>
     <t>指导UI用例</t>
+  </si>
+  <si>
+    <t>延迟目前0%</t>
   </si>
   <si>
     <t>指导接口用例</t>
@@ -103,12 +109,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,7 +124,88 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,41 +234,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -203,58 +268,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -270,6 +283,96 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -300,19 +403,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,90 +440,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,6 +474,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -488,36 +540,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -539,25 +561,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,10 +580,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -579,139 +592,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1060,16 +1074,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="30.25" customWidth="1"/>
+    <col min="4" max="4" width="13.25" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1149,7 +1164,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>9.27</v>
       </c>
@@ -1162,19 +1177,31 @@
       <c r="D6" s="1">
         <v>0.15</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>9.28</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1182,7 +1209,7 @@
         <v>9.29</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -1193,7 +1220,7 @@
         <v>9.3</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>

--- a/交流管理/项目日报/聂正文—每日要做的事的.xlsx
+++ b/交流管理/项目日报/聂正文—每日要做的事的.xlsx
@@ -98,7 +98,7 @@
     <t>延迟目前0%</t>
   </si>
   <si>
-    <t>指导接口用例</t>
+    <t>指导接口用例,nginx集群部署研究</t>
   </si>
   <si>
     <t>docker部署</t>
@@ -109,10 +109,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -130,44 +130,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -176,44 +138,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,9 +159,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,6 +212,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -259,16 +259,16 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,25 +283,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,31 +415,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,24 +445,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -410,60 +464,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,17 +477,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,46 +510,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,16 +548,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -592,133 +592,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1204,7 +1204,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>9.29</v>
       </c>
@@ -1213,6 +1213,9 @@
       </c>
       <c r="C8" t="s">
         <v>8</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3">

--- a/交流管理/项目日报/聂正文—每日要做的事的.xlsx
+++ b/交流管理/项目日报/聂正文—每日要做的事的.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
   <si>
     <t>时间</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>延迟目前0%</t>
+  </si>
+  <si>
+    <t>提供开发代码并部署</t>
   </si>
   <si>
     <t>指导接口用例,nginx集群部署研究</t>
@@ -131,14 +134,90 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,46 +238,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,30 +263,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,23 +271,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,6 +286,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -295,36 +448,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -344,126 +467,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,11 +480,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,21 +500,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,26 +519,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,16 +559,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -592,133 +595,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1077,7 +1080,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1198,7 +1201,7 @@
         <v>15</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
@@ -1209,7 +1212,7 @@
         <v>9.29</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -1223,7 +1226,7 @@
         <v>9.3</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>

--- a/交流管理/项目日报/聂正文—每日要做的事的.xlsx
+++ b/交流管理/项目日报/聂正文—每日要做的事的.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <t>时间</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <t>指导接口用例,nginx集群部署研究</t>
+  </si>
+  <si>
+    <t>9.30</t>
+  </si>
+  <si>
+    <t>python 基础学习，mock 研究</t>
   </si>
   <si>
     <t>docker部署</t>
@@ -112,10 +118,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -135,6 +141,29 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,50 +223,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,15 +248,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,13 +292,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,36 +346,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -358,6 +406,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -370,7 +454,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,90 +473,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,6 +483,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -495,15 +525,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -515,36 +536,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,6 +560,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -583,10 +589,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -595,140 +601,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1077,10 +1084,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1221,14 +1228,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <v>9.3</v>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>10.9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
         <v>6</v>
       </c>
     </row>

--- a/交流管理/项目日报/聂正文—每日要做的事的.xlsx
+++ b/交流管理/项目日报/聂正文—每日要做的事的.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
   <si>
     <t>时间</t>
   </si>
@@ -110,7 +110,13 @@
     <t>python 基础学习，mock 研究</t>
   </si>
   <si>
-    <t>docker部署</t>
+    <t>docker部署，mock研究</t>
+  </si>
+  <si>
+    <t>10.10</t>
+  </si>
+  <si>
+    <t>mock研究</t>
   </si>
 </sst>
 </file>
@@ -118,12 +124,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,6 +139,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -141,6 +154,103 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,46 +272,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,68 +289,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,12 +305,114 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -310,31 +425,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,7 +443,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,61 +455,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,54 +486,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,17 +499,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,21 +519,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,6 +534,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,25 +583,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,10 +602,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -601,140 +614,143 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1084,10 +1100,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1119,13 +1135,13 @@
       <c r="A2">
         <v>9.21</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1139,7 +1155,7 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="3">
         <v>0.5</v>
       </c>
     </row>
@@ -1153,21 +1169,21 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="3">
         <v>0.6</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5">
+      <c r="A5" s="4">
         <v>9.26</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>1</v>
       </c>
       <c r="E5" t="s">
@@ -1184,10 +1200,10 @@
       <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="3">
         <v>0.15</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F6" t="s">
@@ -1207,7 +1223,7 @@
       <c r="D7" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F7" t="s">
@@ -1215,31 +1231,31 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8">
+      <c r="A8" s="4">
         <v>9.29</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="3">
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>10.9</v>
       </c>
@@ -1248,6 +1264,20 @@
       </c>
       <c r="C10" t="s">
         <v>6</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/聂正文—每日要做的事的.xlsx
+++ b/交流管理/项目日报/聂正文—每日要做的事的.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="9930"/>
+    <workbookView windowWidth="21495" windowHeight="9930"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
   <si>
     <t>时间</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>mock研究</t>
+  </si>
+  <si>
+    <t>mock不适用</t>
   </si>
 </sst>
 </file>
@@ -124,10 +127,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -161,6 +164,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -168,6 +179,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -181,38 +223,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,15 +239,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,41 +255,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,6 +308,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -323,6 +356,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -377,12 +458,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -390,78 +465,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,17 +502,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,6 +522,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,30 +552,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,16 +577,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -602,10 +605,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -614,142 +617,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -1103,7 +1105,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1174,7 +1176,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="4">
+      <c r="A5" s="1">
         <v>9.26</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1203,7 +1205,7 @@
       <c r="D6" s="3">
         <v>0.15</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F6" t="s">
@@ -1223,7 +1225,7 @@
       <c r="D7" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F7" t="s">
@@ -1231,7 +1233,7 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="4">
+      <c r="A8" s="1">
         <v>9.29</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1245,7 +1247,7 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B9" t="s">
@@ -1268,16 +1270,22 @@
       <c r="D10" s="3">
         <v>0.3</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:5">
+      <c r="A11" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/聂正文—每日要做的事的.xlsx
+++ b/交流管理/项目日报/聂正文—每日要做的事的.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
   <si>
     <t>时间</t>
   </si>
@@ -120,6 +120,15 @@
   </si>
   <si>
     <t>mock不适用</t>
+  </si>
+  <si>
+    <t>测试人员工作了解，任务分配</t>
+  </si>
+  <si>
+    <t>高</t>
+  </si>
+  <si>
+    <t>soupUI 学习</t>
   </si>
 </sst>
 </file>
@@ -127,10 +136,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -152,21 +161,6 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -185,44 +179,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -241,9 +197,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -264,21 +220,58 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,6 +287,22 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,6 +317,102 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -338,24 +443,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -380,18 +467,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -399,72 +474,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,21 +508,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -558,17 +552,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -599,16 +582,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -617,133 +626,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1102,10 +1111,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1281,11 +1290,42 @@
       <c r="B11" t="s">
         <v>22</v>
       </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
       <c r="D11" s="3">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="E11" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>10.11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>10.12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/聂正文—每日要做的事的.xlsx
+++ b/交流管理/项目日报/聂正文—每日要做的事的.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <t>时间</t>
   </si>
@@ -128,7 +128,17 @@
     <t>高</t>
   </si>
   <si>
-    <t>soupUI 学习</t>
+    <t>soapUI 学习</t>
+  </si>
+  <si>
+    <t>1.soapUI工具运用方法理解(已完成)
+2.尝试java 实现soapUI 接口（研究中）
+3.外出移动测试考试</t>
+  </si>
+  <si>
+    <t>1.soapUI java实现
+2.周会议总结
+3.</t>
   </si>
 </sst>
 </file>
@@ -136,10 +146,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -180,14 +190,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -220,6 +222,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -227,14 +236,76 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,67 +313,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,37 +327,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,144 +508,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,21 +526,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,15 +569,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -600,6 +586,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -608,16 +603,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -626,19 +636,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -647,122 +657,125 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1111,10 +1124,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1326,6 +1339,28 @@
       </c>
       <c r="D13" s="3">
         <v>0.4</v>
+      </c>
+    </row>
+    <row r="14" ht="67.5" spans="1:4">
+      <c r="A14">
+        <v>10.13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" ht="40.5" spans="1:2">
+      <c r="A15">
+        <v>10.16</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/聂正文—每日要做的事的.xlsx
+++ b/交流管理/项目日报/聂正文—每日要做的事的.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="9930"/>
+    <workbookView windowWidth="23895" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
   <si>
     <t>时间</t>
   </si>
@@ -138,7 +138,10 @@
   <si>
     <t>1.soapUI java实现
 2.周会议总结
-3.</t>
+3.ios安装包尝试安装</t>
+  </si>
+  <si>
+    <t>iOS安装包安装，1.soapUI java实现</t>
   </si>
 </sst>
 </file>
@@ -146,10 +149,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -171,6 +174,21 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -189,6 +207,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -199,9 +263,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -222,7 +286,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,83 +300,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,25 +330,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -357,31 +462,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,120 +511,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,11 +524,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,6 +574,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,21 +613,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -592,42 +621,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -636,133 +639,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1124,16 +1127,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="30.25" customWidth="1"/>
+    <col min="2" max="2" width="34.5" customWidth="1"/>
     <col min="4" max="4" width="13.25" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
   </cols>
@@ -1355,12 +1358,26 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" ht="40.5" spans="1:2">
+    <row r="15" ht="40.5" spans="1:4">
       <c r="A15">
         <v>10.16</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>10.17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/聂正文—每日要做的事的.xlsx
+++ b/交流管理/项目日报/聂正文—每日要做的事的.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
   <si>
     <t>时间</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>iOS安装包安装，1.soapUI java实现</t>
+  </si>
+  <si>
+    <t>性能测试</t>
   </si>
 </sst>
 </file>
@@ -149,10 +152,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -299,23 +302,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,6 +339,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -348,30 +375,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -384,48 +387,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -444,6 +447,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -456,7 +495,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,48 +514,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,10 +630,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -639,115 +642,115 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -756,13 +759,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1127,10 +1130,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1344,7 +1347,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="14" ht="67.5" spans="1:4">
+    <row r="14" ht="54" spans="1:4">
       <c r="A14">
         <v>10.13</v>
       </c>
@@ -1372,12 +1375,28 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>10.17</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
+        <v>10.18</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/聂正文—每日要做的事的.xlsx
+++ b/交流管理/项目日报/聂正文—每日要做的事的.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
   <si>
     <t>时间</t>
   </si>
@@ -145,6 +145,15 @@
   </si>
   <si>
     <t>性能测试</t>
+  </si>
+  <si>
+    <t>目前脚本场景已经确定，性能不达标，待开发调优</t>
+  </si>
+  <si>
+    <t>高德项目实现 java+webserver发送</t>
+  </si>
+  <si>
+    <t>框架整合中</t>
   </si>
 </sst>
 </file>
@@ -152,9 +161,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -181,7 +190,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,7 +198,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,53 +221,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,25 +280,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,35 +328,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -333,12 +342,102 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -351,7 +450,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -363,6 +498,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -370,150 +523,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,41 +536,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,26 +556,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -619,8 +578,58 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,145 +639,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1130,10 +1139,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1141,7 +1150,7 @@
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="34.5" customWidth="1"/>
     <col min="4" max="4" width="13.25" customWidth="1"/>
-    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="5" max="5" width="51.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1382,6 +1391,9 @@
       <c r="B16" t="s">
         <v>29</v>
       </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
       <c r="D16" s="3">
         <v>0.7</v>
       </c>
@@ -1390,13 +1402,55 @@
       <c r="B17" t="s">
         <v>30</v>
       </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
       <c r="D17" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>10.18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>10.19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/聂正文—每日要做的事的.xlsx
+++ b/交流管理/项目日报/聂正文—每日要做的事的.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="10350"/>
+    <workbookView windowWidth="23895" windowHeight="9930"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -161,9 +161,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -190,7 +190,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,15 +198,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,36 +213,69 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,22 +289,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -287,47 +319,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -342,31 +342,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,13 +504,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,133 +522,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,11 +536,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,6 +586,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,58 +628,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -639,10 +639,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -651,133 +651,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1139,10 +1139,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1440,16 +1440,30 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>10.19</v>
       </c>
       <c r="B20" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="21" spans="2:2">
+      <c r="D20" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
       <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>10.2</v>
+      </c>
+      <c r="B22" t="s">
         <v>32</v>
       </c>
     </row>

--- a/交流管理/项目日报/聂正文—每日要做的事的.xlsx
+++ b/交流管理/项目日报/聂正文—每日要做的事的.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
   <si>
     <t>时间</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>框架整合中</t>
+  </si>
+  <si>
+    <t>10.20</t>
   </si>
 </sst>
 </file>
@@ -162,9 +165,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -311,23 +314,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -342,6 +345,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -354,18 +375,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -378,25 +429,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,30 +495,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -450,79 +507,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,10 +642,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -651,133 +654,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1141,8 +1144,8 @@
   <sheetPr/>
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1447,6 +1450,9 @@
       <c r="B20" t="s">
         <v>30</v>
       </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
       <c r="D20" s="3">
         <v>0.5</v>
       </c>
@@ -1455,16 +1461,22 @@
       <c r="B21" t="s">
         <v>32</v>
       </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
       <c r="D21" s="3">
         <v>0.6</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22">
-        <v>10.2</v>
+    <row r="22" spans="1:3">
+      <c r="A22" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="B22" t="s">
         <v>32</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/聂正文—每日要做的事的.xlsx
+++ b/交流管理/项目日报/聂正文—每日要做的事的.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
   <si>
     <t>时间</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>10.20</t>
+  </si>
+  <si>
+    <t>性能测试脚本调试</t>
   </si>
 </sst>
 </file>
@@ -165,9 +168,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -314,23 +317,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -345,6 +348,162 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -363,72 +522,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -436,96 +529,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -642,145 +645,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1142,10 +1145,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1468,7 +1471,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:4">
       <c r="A22" s="5" t="s">
         <v>34</v>
       </c>
@@ -1477,6 +1480,33 @@
       </c>
       <c r="C22" t="s">
         <v>8</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>10.23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/聂正文—每日要做的事的.xlsx
+++ b/交流管理/项目日报/聂正文—每日要做的事的.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="9930"/>
+    <workbookView windowWidth="15225" windowHeight="7920"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -167,8 +167,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -196,15 +196,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,6 +254,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -225,47 +308,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,59 +325,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,19 +348,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,163 +522,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,17 +542,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,44 +618,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -645,10 +645,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -657,133 +657,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1145,10 +1145,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1496,16 +1496,35 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>10.23</v>
       </c>
       <c r="B24" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="25" spans="2:2">
+      <c r="D24" s="3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
       <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>10.24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
         <v>35</v>
       </c>
     </row>

--- a/交流管理/项目日报/聂正文—每日要做的事的.xlsx
+++ b/交流管理/项目日报/聂正文—每日要做的事的.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
   <si>
     <t>时间</t>
   </si>
@@ -160,6 +160,12 @@
   </si>
   <si>
     <t>性能测试脚本调试</t>
+  </si>
+  <si>
+    <t>安全测试IBM APPscan扫描</t>
+  </si>
+  <si>
+    <t>云谷项目阿里云部署</t>
   </si>
 </sst>
 </file>
@@ -196,12 +202,104 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -211,36 +309,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,92 +323,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -348,187 +354,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,6 +551,56 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -566,65 +628,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -639,16 +642,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -657,7 +669,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -666,7 +678,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -675,119 +687,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -797,6 +809,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1145,10 +1159,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1508,11 +1522,12 @@
       </c>
     </row>
     <row r="25" spans="2:4">
-      <c r="B25" t="s">
+      <c r="B25" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="3">
-        <v>0.95</v>
+      <c r="C25" s="7"/>
+      <c r="D25" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1525,7 +1540,12 @@
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/聂正文—每日要做的事的.xlsx
+++ b/交流管理/项目日报/聂正文—每日要做的事的.xlsx
@@ -173,10 +173,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -198,6 +198,13 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -262,6 +269,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,57 +337,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -360,6 +360,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -414,6 +432,84 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -421,102 +517,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -593,26 +593,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -651,16 +631,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -669,133 +669,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1159,10 +1159,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1527,26 +1527,65 @@
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>10.24</v>
       </c>
       <c r="B26" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="27" spans="2:2">
+      <c r="D26" s="3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
       <c r="B27" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="28" spans="2:2">
+      <c r="D27" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
       <c r="B28" t="s">
         <v>37</v>
       </c>
+      <c r="D28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="1" spans="2:4">
+      <c r="B29" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>10.25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/交流管理/项目日报/聂正文—每日要做的事的.xlsx
+++ b/交流管理/项目日报/聂正文—每日要做的事的.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15225" windowHeight="7920"/>
+    <workbookView windowWidth="23895" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
   <si>
     <t>时间</t>
   </si>
@@ -166,6 +166,12 @@
   </si>
   <si>
     <t>云谷项目阿里云部署</t>
+  </si>
+  <si>
+    <t>100%^</t>
+  </si>
+  <si>
+    <t>高德项目测试流程梳理</t>
   </si>
 </sst>
 </file>
@@ -173,10 +179,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -202,14 +208,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,50 +291,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -337,6 +315,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -360,19 +366,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,163 +546,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,60 +557,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -626,8 +578,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -651,16 +633,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -669,133 +675,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1159,10 +1165,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1517,6 +1523,9 @@
       <c r="B24" t="s">
         <v>32</v>
       </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
       <c r="D24" s="3">
         <v>0.6</v>
       </c>
@@ -1525,7 +1534,9 @@
       <c r="B25" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="7"/>
+      <c r="C25" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="D25" s="8">
         <v>0.95</v>
       </c>
@@ -1537,6 +1548,9 @@
       <c r="B26" t="s">
         <v>32</v>
       </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
       <c r="D26" s="3">
         <v>0.6</v>
       </c>
@@ -1545,6 +1559,9 @@
       <c r="B27" t="s">
         <v>36</v>
       </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
       <c r="D27" s="3">
         <v>0.1</v>
       </c>
@@ -1553,6 +1570,9 @@
       <c r="B28" t="s">
         <v>37</v>
       </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
       <c r="D28" s="3">
         <v>0</v>
       </c>
@@ -1573,19 +1593,58 @@
       <c r="B30" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="3"/>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="3"/>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="32" spans="2:4">
       <c r="B32" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="3"/>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>10.26</v>
+      </c>
+      <c r="B34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/交流管理/项目日报/聂正文—每日要做的事的.xlsx
+++ b/交流管理/项目日报/聂正文—每日要做的事的.xlsx
@@ -168,10 +168,10 @@
     <t>云谷项目阿里云部署</t>
   </si>
   <si>
-    <t>100%^</t>
-  </si>
-  <si>
     <t>高德项目测试流程梳理</t>
+  </si>
+  <si>
+    <t>高德项目loadrunner 实现全接口操作</t>
   </si>
 </sst>
 </file>
@@ -179,10 +179,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -208,6 +208,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -215,8 +222,99 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,113 +329,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -366,187 +366,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,6 +557,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -578,38 +608,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -635,25 +644,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -663,10 +663,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -675,133 +675,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1165,10 +1165,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1607,8 +1607,8 @@
       <c r="C31" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>38</v>
+      <c r="D31" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="2:4">
@@ -1624,7 +1624,7 @@
     </row>
     <row r="33" spans="2:4">
       <c r="B33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C33" t="s">
         <v>25</v>
@@ -1633,17 +1633,37 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>10.26</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2">
+        <v>38</v>
+      </c>
+      <c r="C34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
       <c r="B35" t="s">
         <v>37</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>10.27</v>
+      </c>
+      <c r="B36" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/聂正文—每日要做的事的.xlsx
+++ b/交流管理/项目日报/聂正文—每日要做的事的.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
   <si>
     <t>时间</t>
   </si>
@@ -172,6 +172,12 @@
   </si>
   <si>
     <t>高德项目loadrunner 实现全接口操作</t>
+  </si>
+  <si>
+    <t>10.30</t>
+  </si>
+  <si>
+    <t>%</t>
   </si>
 </sst>
 </file>
@@ -179,10 +185,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -208,14 +214,60 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,27 +281,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -257,17 +319,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,9 +335,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -289,63 +349,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -366,187 +372,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,6 +563,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -590,50 +614,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -657,16 +637,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -675,133 +681,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1165,10 +1171,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1658,12 +1664,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:4">
       <c r="A36">
         <v>10.27</v>
       </c>
       <c r="B36" t="s">
         <v>39</v>
+      </c>
+      <c r="C36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/聂正文—每日要做的事的.xlsx
+++ b/交流管理/项目日报/聂正文—每日要做的事的.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
   <si>
     <t>时间</t>
   </si>
@@ -175,9 +175,6 @@
   </si>
   <si>
     <t>10.30</t>
-  </si>
-  <si>
-    <t>%</t>
   </si>
 </sst>
 </file>
@@ -186,9 +183,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -214,7 +211,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,6 +240,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -243,6 +256,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -250,9 +271,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,8 +294,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,62 +325,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,12 +369,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -390,48 +453,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -444,30 +519,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -480,36 +531,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -529,30 +550,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,11 +563,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,16 +588,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -616,6 +619,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -624,42 +638,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -669,10 +666,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -681,133 +678,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1174,7 +1171,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1688,9 +1685,7 @@
       <c r="C37" t="s">
         <v>25</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="D37" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/交流管理/项目日报/聂正文—每日要做的事的.xlsx
+++ b/交流管理/项目日报/聂正文—每日要做的事的.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
   <si>
     <t>时间</t>
   </si>
@@ -175,6 +175,9 @@
   </si>
   <si>
     <t>10.30</t>
+  </si>
+  <si>
+    <t>java 实现高德接口自动化</t>
   </si>
 </sst>
 </file>
@@ -182,9 +185,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -217,9 +220,115 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,122 +342,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -369,6 +372,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -381,175 +546,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -560,6 +563,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -581,8 +608,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,21 +625,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -638,25 +650,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,10 +669,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -678,133 +681,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1168,10 +1171,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1685,7 +1688,31 @@
       <c r="C37" t="s">
         <v>25</v>
       </c>
-      <c r="D37" s="3"/>
+      <c r="D37" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>10.31</v>
+      </c>
+      <c r="B39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/交流管理/项目日报/聂正文—每日要做的事的.xlsx
+++ b/交流管理/项目日报/聂正文—每日要做的事的.xlsx
@@ -185,10 +185,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -220,6 +220,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -227,6 +243,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -235,6 +259,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -251,7 +283,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,8 +297,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,6 +313,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -287,71 +335,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,187 +372,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,30 +563,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -608,8 +584,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -625,6 +601,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -650,16 +641,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -669,10 +669,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -681,133 +681,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1171,10 +1171,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1703,7 +1703,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:4">
       <c r="A39">
         <v>10.31</v>
       </c>
@@ -1711,6 +1711,20 @@
         <v>41</v>
       </c>
       <c r="C39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>11.01</v>
+      </c>
+      <c r="B40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" t="s">
         <v>8</v>
       </c>
     </row>

--- a/交流管理/项目日报/聂正文—每日要做的事的.xlsx
+++ b/交流管理/项目日报/聂正文—每日要做的事的.xlsx
@@ -186,9 +186,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1171,10 +1171,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1717,7 +1717,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:4">
       <c r="A40">
         <v>11.01</v>
       </c>
@@ -1725,6 +1725,20 @@
         <v>41</v>
       </c>
       <c r="C40" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>11.02</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" t="s">
         <v>8</v>
       </c>
     </row>

--- a/交流管理/项目日报/聂正文—每日要做的事的.xlsx
+++ b/交流管理/项目日报/聂正文—每日要做的事的.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
   <si>
     <t>时间</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>java 实现高德接口自动化</t>
+  </si>
+  <si>
+    <t>java srping 学习</t>
   </si>
 </sst>
 </file>
@@ -186,9 +189,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -335,20 +338,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -356,6 +345,20 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -372,6 +375,162 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -390,72 +549,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -463,96 +556,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -669,149 +672,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -823,6 +826,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1171,10 +1176,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1731,15 +1736,32 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
-      <c r="A41">
+    <row r="41" spans="1:4">
+      <c r="A41" s="9">
         <v>11.02</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C41" t="s">
-        <v>8</v>
+      <c r="C41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
+        <v>11.03</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="3">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/聂正文—每日要做的事的.xlsx
+++ b/交流管理/项目日报/聂正文—每日要做的事的.xlsx
@@ -189,9 +189,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -254,57 +254,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -687,13 +687,13 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -702,16 +702,16 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -723,22 +723,22 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -750,13 +750,13 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -768,7 +768,7 @@
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -783,10 +783,10 @@
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -795,26 +795,26 @@
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -826,8 +826,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1179,7 +1177,7 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1737,7 +1735,7 @@
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="9">
+      <c r="A41" s="1">
         <v>11.02</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -1746,7 +1744,7 @@
       <c r="C41" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="10">
+      <c r="D41" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1761,7 +1759,7 @@
         <v>6</v>
       </c>
       <c r="D42" s="3">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/聂正文—每日要做的事的.xlsx
+++ b/交流管理/项目日报/聂正文—每日要做的事的.xlsx
@@ -188,8 +188,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -254,6 +254,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -301,14 +309,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -338,6 +338,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -345,20 +359,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -375,6 +375,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -387,18 +405,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -411,25 +459,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,30 +525,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -483,79 +537,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -672,10 +672,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -684,16 +684,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -702,18 +702,18 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -723,94 +723,94 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1177,7 +1177,7 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1758,9 +1758,7 @@
       <c r="C42" t="s">
         <v>6</v>
       </c>
-      <c r="D42" s="3">
-        <v>0.15</v>
-      </c>
+      <c r="D42" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/交流管理/项目日报/聂正文—每日要做的事的.xlsx
+++ b/交流管理/项目日报/聂正文—每日要做的事的.xlsx
@@ -180,7 +180,7 @@
     <t>java 实现高德接口自动化</t>
   </si>
   <si>
-    <t>java srping 学习</t>
+    <t>java spring 学习</t>
   </si>
 </sst>
 </file>
@@ -189,9 +189,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -217,7 +217,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,15 +284,46 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,14 +337,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -271,81 +346,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -375,6 +375,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -405,157 +447,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,6 +566,60 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -588,37 +642,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,30 +661,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -672,10 +672,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -684,133 +684,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1177,7 +1177,7 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>

--- a/交流管理/项目日报/聂正文—每日要做的事的.xlsx
+++ b/交流管理/项目日报/聂正文—每日要做的事的.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
   <si>
     <t>时间</t>
   </si>
@@ -180,7 +180,10 @@
     <t>java 实现高德接口自动化</t>
   </si>
   <si>
-    <t>java spring 学习</t>
+    <t>java spring ioc ,aop和testNG 整合</t>
+  </si>
+  <si>
+    <t>java反射和testng整合</t>
   </si>
 </sst>
 </file>
@@ -188,10 +191,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -213,6 +216,67 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -232,21 +296,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -254,40 +303,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -308,38 +328,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -375,6 +378,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -387,6 +444,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -399,103 +462,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,36 +559,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,60 +569,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -642,7 +591,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -661,6 +640,30 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -672,10 +675,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -684,133 +687,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1174,10 +1177,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1758,7 +1761,20 @@
       <c r="C42" t="s">
         <v>6</v>
       </c>
-      <c r="D42" s="3"/>
+      <c r="D42" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>11.04</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/交流管理/项目日报/聂正文—每日要做的事的.xlsx
+++ b/交流管理/项目日报/聂正文—每日要做的事的.xlsx
@@ -191,10 +191,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1180,7 +1180,7 @@
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1767,7 +1767,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>11.04</v>
+        <v>11.06</v>
       </c>
       <c r="B43" t="s">
         <v>43</v>
